--- a/consolidation_result_post_analysis.xlsx
+++ b/consolidation_result_post_analysis.xlsx
@@ -82,7 +82,7 @@
       <row>3</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="4286250" cy="2857500"/>
+    <ext cx="4572000" cy="3429000"/>
     <pic>
       <nvPicPr>
         <cNvPr descr="Picture" id="1" name="Image 1"/>
